--- a/pred_ohlcv/54_21/2019-10-29 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LAMB ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>696681.2809262869</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>813269.2608474456</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>835780.6074474456</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>835780.6074474456</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>846680.4169474456</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>857453.4960474456</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>870286.4541474456</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>822172.4496474456</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1308284.263866332</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1031298.977666332</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1031298.977666332</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>512579.434566332</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1016283.119666332</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>757008.9938663321</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>820611.4174663321</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>778397.0215663321</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>898703.7517663321</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>889488.6686663321</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>883424.1613663321</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>873414.0513663321</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>885914.0629663321</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>884634.349866332</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>884634.349866332</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>890605.280266332</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>890605.280266332</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>890615.380266332</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>983140.3661663319</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>989722.3384663319</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>968696.841266332</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>971696.841266332</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1024319.292166332</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1084912.341347129</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>623627.1294134449</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>688716.7075134448</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>694263.7075134448</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>617169.6269134448</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>558616.8285134449</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>581121.3285134449</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>688183.6804134449</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>688183.6804134449</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>726488.9954134449</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>699482.5664134449</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>690516.3740134449</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>422852.5243134449</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>1084610.720408985</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>1057032.954680948</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>1064414.970180948</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>1092867.935545749</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>961349.8027457495</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>940217.6321457494</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>709765.7601457494</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>772712.7601457494</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>816008.7366163377</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>768859.6302163376</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1271190.248416338</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1390438.111616338</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1317561.230016338</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1317561.230016338</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1383203.854216338</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>1371780.722028102</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>1157441.807828102</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>1171032.580128102</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>1110335.705828102</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>1155634.670228102</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>1244506.373128102</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>1311818.685109899</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1300902.981809899</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>1300913.081809899</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>1296913.081809899</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>1360500.517209899</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1442648.494909899</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1351532.214009899</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1343695.805509899</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1327849.270109899</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1343629.550909899</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1353970.695909899</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1342999.316009899</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1344040.381909899</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>1348916.281509899</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>1348193.338609899</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>1348193.338609899</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>1347166.603809899</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>1308871.165709899</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>1297508.193409899</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1301518.193409899</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1300248.783909899</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1299037.224609899</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1341412.356809899</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1385425.048809899</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1385425.048809899</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1384927.657209899</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1393169.466709899</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1393169.466709899</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1399997.466709899</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1399997.466709899</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LAMB ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>696681.2809262869</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>813269.2608474456</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>835780.6074474456</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>835780.6074474456</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>846680.4169474456</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>857453.4960474456</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>870286.4541474456</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>822172.4496474456</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1308284.263866332</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1031298.977666332</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1031298.977666332</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>512579.434566332</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1016283.119666332</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>757008.9938663321</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>820611.4174663321</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>778397.0215663321</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>898703.7517663321</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>889488.6686663321</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>883424.1613663321</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>873414.0513663321</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>885914.0629663321</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>884634.349866332</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>884634.349866332</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>890605.280266332</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>890605.280266332</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>890615.380266332</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>867215.380266332</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>983140.3661663319</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>989722.3384663319</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>968696.841266332</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>971696.841266332</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1024319.292166332</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1736508.010280134</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1733500.191780134</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1643835.641180134</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1644888.762380134</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1611109.672880134</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1431450.685880134</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1439143.063380134</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1084912.341347129</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>623627.1294134449</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>688716.7075134448</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>694263.7075134448</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>617169.6269134448</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>558616.8285134449</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>581121.3285134449</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>688183.6804134449</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>688183.6804134449</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>726488.9954134449</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>699482.5664134449</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>690516.3740134449</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>422852.5243134449</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>832816.7273134449</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>878890.942013445</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>978366.0697089848</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>1008171.374808985</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>1084610.720408985</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>1057032.954680948</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>1064414.970180948</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>1092867.935545749</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>961349.8027457495</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>940217.6321457494</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>709765.7601457494</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>772712.7601457494</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>816008.7366163377</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>768859.6302163376</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1271190.248416338</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1390438.111616338</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1317561.230016338</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1317561.230016338</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1383203.854216338</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1345661.383128102</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>1371780.722028102</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>1157441.807828102</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>1171032.580128102</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>1244506.373128102</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1423328.734928102</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1311746.225009899</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1308753.725009899</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1308753.725009899</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1300902.981809899</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1442648.494909899</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1351532.214009899</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1343695.805509899</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1327849.270109899</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1343629.550909899</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>1353970.695909899</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>1342999.316009899</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>1344040.381909899</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1393169.466709899</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1399997.466709899</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
